--- a/footology_domain_requirements.xlsx
+++ b/footology_domain_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arditbacaj/Desktop/Uni/Bachelor Thesis/thesis/ORSD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC37C1-968D-054A-975A-CD9C74C5E026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1570B61-B57B-6E44-9827-A40C50D422A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
   <si>
     <t>Identifier (domain+id)</t>
   </si>
@@ -225,20 +225,62 @@
     <t>Is the ontology capable of comparing two players from different leagues?</t>
   </si>
   <si>
-    <t>SPARQL</t>
-  </si>
-  <si>
     <t>What formation does team x play?</t>
   </si>
   <si>
     <t>Only Top 5 Leagues</t>
+  </si>
+  <si>
+    <t>Through a relation between Player and Team</t>
+  </si>
+  <si>
+    <t>With the Concept "Performance Stats"</t>
+  </si>
+  <si>
+    <t>In the Player Concept</t>
+  </si>
+  <si>
+    <t>Yes, in the Team Concept</t>
+  </si>
+  <si>
+    <t>Performance Stats</t>
+  </si>
+  <si>
+    <t>In the Team Concept</t>
+  </si>
+  <si>
+    <t>Represented in the Performance Stats Concept</t>
+  </si>
+  <si>
+    <t>Possible with SPARQL queries</t>
+  </si>
+  <si>
+    <t>Relationship between Team and Trophy</t>
+  </si>
+  <si>
+    <t>Relationship between Player and Award</t>
+  </si>
+  <si>
+    <t>Represented in the Team Concept</t>
+  </si>
+  <si>
+    <t>Relationship between Team and Stadium</t>
+  </si>
+  <si>
+    <t>Not represented in the ontology</t>
+  </si>
+  <si>
+    <t>Relationship between Team and Coach</t>
+  </si>
+  <si>
+    <t>£</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -290,6 +332,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -317,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,6 +378,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -651,7 +700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -701,6 +750,9 @@
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
@@ -728,6 +780,9 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
@@ -755,6 +810,9 @@
       <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>61</v>
       </c>
@@ -782,6 +840,9 @@
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>48</v>
       </c>
@@ -796,6 +857,9 @@
       <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D9" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>51</v>
       </c>
@@ -829,6 +893,9 @@
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="H12" s="6" t="s">
         <v>61</v>
       </c>
@@ -840,6 +907,9 @@
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D13" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="G13" s="6" t="s">
         <v>39</v>
       </c>
@@ -851,7 +921,9 @@
       <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="6" t="s">
         <v>40</v>
@@ -864,7 +936,9 @@
       <c r="C15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6" t="s">
@@ -881,6 +955,9 @@
       <c r="C16" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="D16" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>45</v>
       </c>
@@ -889,6 +966,9 @@
       <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="D17" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="G17" s="6" t="s">
         <v>42</v>
       </c>
@@ -904,7 +984,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>52</v>
@@ -944,6 +1024,9 @@
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6" t="s">
         <v>54</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>46</v>
@@ -964,13 +1047,19 @@
       <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="D23" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="I23" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>56</v>
@@ -993,7 +1082,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>43</v>
@@ -1010,6 +1099,9 @@
       <c r="C27" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D27" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="H27" s="6" t="s">
         <v>62</v>
       </c>
@@ -1022,6 +1114,9 @@
       <c r="C28" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="D28" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="I28" s="6" t="s">
         <v>53</v>
       </c>
@@ -1029,6 +1124,9 @@
     <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>45</v>
@@ -1039,6 +1137,9 @@
       <c r="C30" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="D30" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="H30" s="6" t="s">
         <v>62</v>
       </c>
@@ -1050,6 +1151,9 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>57</v>
